--- a/docs/Facts.xlsx
+++ b/docs/Facts.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kacji\OneDrive - uns.ac.rs\OSMI\Projects\dermatology_assistant\documentation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kacji\OneDrive - uns.ac.rs\OSMI\Projects\dermatology_assistant\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E4DF67F-C6A9-4BF9-8CB2-526702F0DB6C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE2EDE25-B68D-4704-94F8-21EDC106831F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="235" xr2:uid="{8F260C12-4A40-47C1-8C81-EADC4A2AF9A1}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="221" activeTab="1" xr2:uid="{8F260C12-4A40-47C1-8C81-EADC4A2AF9A1}"/>
   </bookViews>
   <sheets>
     <sheet name="Ingredients" sheetId="1" r:id="rId1"/>
@@ -1250,7 +1250,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDE26F62-A483-48E5-AECB-A7F6D49F2DE9}">
   <dimension ref="A2:N30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
@@ -1669,7 +1669,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20B6D6D2-DF8F-42D4-B348-6064A7AEAE7C}">
   <dimension ref="B4:K31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
